--- a/cbrunner/Parameters/Parameters_NutrientApplication.xlsx
+++ b/cbrunner/Parameters/Parameters_NutrientApplication.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F83882-10EC-46B1-B3AE-E3FAF0C69E82}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3954B283-F4CC-4666-867E-D9BA51D03DC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/cbrunner/Parameters/Parameters_NutrientApplication.xlsx
+++ b/cbrunner/Parameters/Parameters_NutrientApplication.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3954B283-F4CC-4666-867E-D9BA51D03DC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0E4E83-7147-435A-953F-B69294AA0A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Value</t>
   </si>
@@ -72,15 +74,6 @@
     <t>kg Urea/ha</t>
   </si>
   <si>
-    <t>Emissions from manufacturing, transport prior to application and transport during application (0.3*1.9 tCO2e/ha)</t>
-  </si>
-  <si>
-    <t>Sonne (2006)</t>
-  </si>
-  <si>
-    <t>tCO2e/ha</t>
-  </si>
-  <si>
     <t>Ratio_N_to_Urea</t>
   </si>
   <si>
@@ -102,24 +95,12 @@
     <t>Jassal et al. (2008)</t>
   </si>
   <si>
-    <t>EmissionsFromFertilization_Sonne</t>
-  </si>
-  <si>
-    <t>EmissionsFromManufacturingAndTransport_Sonne</t>
-  </si>
-  <si>
     <t>Scott and Perry (2010)</t>
   </si>
   <si>
     <t>EmissionFromFertilizerProduction_SP10</t>
   </si>
   <si>
-    <t>EmissionFromLogisticsPreApplication_SP10</t>
-  </si>
-  <si>
-    <t>EmissionFromLogisticsApplication_SP10</t>
-  </si>
-  <si>
     <t>Filipescu et al., 2016; Jozsa and Brix, 1989; Mäkinen and Hynynen, 2014; Mörling, 2002; Yang et al., 1988</t>
   </si>
   <si>
@@ -247,6 +228,21 @@
   </si>
   <si>
     <t>r_NonUniform_Spatial_Distribution</t>
+  </si>
+  <si>
+    <t>TonneNH3PerTonneUrea</t>
+  </si>
+  <si>
+    <t>From workbook</t>
+  </si>
+  <si>
+    <t>EmissionFromRailBargeTruck_Workbook</t>
+  </si>
+  <si>
+    <t>EmissionFromRailBargeTruck_SP10</t>
+  </si>
+  <si>
+    <t>EmissionFromHelicopter_SP10</t>
   </si>
 </sst>
 </file>
@@ -295,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -368,6 +364,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,13 +740,13 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B2" s="14">
         <v>60.055999999999997</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>11</v>
@@ -756,13 +755,13 @@
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B3" s="14">
         <v>17</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -775,7 +774,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>6</v>
@@ -784,38 +783,38 @@
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="14">
         <v>0.46</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="16">
         <f>44/28</f>
         <v>1.5714285714285714</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B7" s="14">
         <v>435</v>
@@ -824,15 +823,15 @@
         <v>13</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" s="14">
         <v>0.8</v>
@@ -842,199 +841,191 @@
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="14">
-        <v>1.3787000000000001E-2</v>
+        <v>68</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1.6895765507269917E-2</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>26</v>
+      <c r="E9" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="14">
-        <v>1.5723000000000001E-2</v>
+        <v>69</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1.3787000000000001E-2</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="14">
-        <v>1.68</v>
+        <v>70</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1.5723000000000001E-2</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:6" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="18">
-        <v>5.3E-3</v>
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>1.81</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="13"/>
+      <c r="A13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.56666666666666665</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="14">
-        <v>5.2</v>
+        <v>43</v>
+      </c>
+      <c r="B14" s="18">
+        <v>5.3E-3</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="19">
-        <v>0.01</v>
+        <v>39</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0.1</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>19</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="20">
-        <v>5.0999999999999997E-2</v>
+        <v>40</v>
+      </c>
+      <c r="B16" s="14">
+        <v>5.2</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>23</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="14">
-        <v>0.56999999999999995</v>
+        <v>19</v>
+      </c>
+      <c r="B18" s="20">
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="12" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B19" s="7">
         <v>0.2</v>
       </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B20" s="14">
         <v>10</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" s="12" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="B21" s="23">
         <v>1.22</v>
@@ -1045,7 +1036,7 @@
     </row>
     <row r="22" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B22" s="24">
         <v>0.8</v>
@@ -1054,9 +1045,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B23" s="14">
         <v>0.95</v>
@@ -1065,12 +1056,12 @@
         <v>0.95</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B24" s="23">
         <v>1</v>
@@ -1081,7 +1072,7 @@
     </row>
     <row r="25" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B25" s="23">
         <v>1.5</v>
@@ -1092,7 +1083,7 @@
     </row>
     <row r="26" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B26" s="23">
         <v>0.9</v>
@@ -1103,7 +1094,7 @@
     </row>
     <row r="27" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B27" s="23">
         <v>1.5</v>
@@ -1115,7 +1106,7 @@
     </row>
     <row r="28" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B28" s="23">
         <v>1.4</v>
@@ -1127,7 +1118,7 @@
     </row>
     <row r="29" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B29" s="16">
         <v>1.37</v>
@@ -1139,7 +1130,7 @@
     </row>
     <row r="30" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B30" s="16">
         <v>1.2</v>
@@ -1151,7 +1142,7 @@
     </row>
     <row r="31" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B31" s="16">
         <v>1.21</v>
@@ -1163,7 +1154,7 @@
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B32" s="16">
         <v>1.21</v>
@@ -1175,71 +1166,73 @@
     </row>
     <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B33" s="16">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="C33" s="16">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B34" s="16">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="C34" s="16">
-        <v>1.31</v>
-      </c>
+        <v>1.32</v>
+      </c>
+      <c r="D34" s="12"/>
       <c r="E34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B35" s="16">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C35" s="16">
-        <v>1.1499999999999999</v>
-      </c>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D35" s="12"/>
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B36" s="16">
-        <v>1.1299999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C36" s="16">
-        <v>1.1299999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E36" s="22"/>
-      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B37" s="16">
-        <v>1.1299999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C37" s="16">
-        <v>1.1299999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
@@ -1249,18 +1242,11 @@
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="6"/>
-    </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" s="6"/>
     </row>
@@ -1365,12 +1351,6 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="6"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Parameters_NutrientApplication.xlsx
+++ b/cbrunner/Parameters/Parameters_NutrientApplication.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0E4E83-7147-435A-953F-B69294AA0A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEEA32D-4564-4F87-8B83-8D585F0E15DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/cbrunner/Parameters/Parameters_NutrientApplication.xlsx
+++ b/cbrunner/Parameters/Parameters_NutrientApplication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEEA32D-4564-4F87-8B83-8D585F0E15DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9A0376-5810-4EB0-9C88-2D8430311D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="852" windowWidth="13788" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>Assumes 6 litres of aviation gas consumed per ha</t>
   </si>
   <si>
-    <t>Handle</t>
-  </si>
-  <si>
     <t>Molecular weight: (NH2)2CO is (14+2)*2+12+16=60.056</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>EmissionFromHelicopter_SP10</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,7 +723,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -740,41 +740,41 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="14">
         <v>60.055999999999997</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="14">
         <v>17</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="14">
         <v>0.2</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>6</v>
@@ -783,55 +783,55 @@
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="14">
         <v>0.46</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="16">
         <f>44/28</f>
         <v>1.5714285714285714</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="14">
         <v>435</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="14">
         <v>0.8</v>
@@ -841,12 +841,12 @@
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="25">
         <v>1.6895765507269917E-2</v>
@@ -855,12 +855,12 @@
         <v>5</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="19">
         <v>1.3787000000000001E-2</v>
@@ -872,13 +872,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="19">
         <v>1.5723000000000001E-2</v>
@@ -890,27 +890,27 @@
         <v>9</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>1.81</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="12">
         <v>0.56666666666666665</v>
@@ -918,22 +918,22 @@
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="18">
         <v>5.3E-3</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="14">
         <v>0.1</v>
@@ -942,28 +942,28 @@
         <v>3</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="14">
         <v>5.2</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="19">
         <v>0.01</v>
@@ -972,15 +972,15 @@
         <v>3</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="20">
         <v>5.0999999999999997E-2</v>
@@ -989,43 +989,43 @@
         <v>3</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="12" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="7">
         <v>0.2</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="14">
         <v>10</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="23">
         <v>1.22</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="22" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="24">
         <v>0.8</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="23" spans="1:5" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="14">
         <v>0.95</v>
@@ -1056,12 +1056,12 @@
         <v>0.95</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="23">
         <v>1</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="25" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="23">
         <v>1.5</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="26" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="23">
         <v>0.9</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="27" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="23">
         <v>1.5</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="28" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="23">
         <v>1.4</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="29" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="16">
         <v>1.37</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="30" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="16">
         <v>1.2</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="31" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="16">
         <v>1.21</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="16">
         <v>1.21</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="16">
         <v>0.66</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="16">
         <v>1.32</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="16">
         <v>1.1599999999999999</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="16">
         <v>1.1499999999999999</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="16">
         <v>1.1499999999999999</v>

--- a/cbrunner/Parameters/Parameters_NutrientApplication.xlsx
+++ b/cbrunner/Parameters/Parameters_NutrientApplication.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9A0376-5810-4EB0-9C88-2D8430311D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5866832-9222-4961-8588-6677078A8A58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="852" windowWidth="13788" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>Value</t>
   </si>
@@ -164,9 +164,6 @@
     <t>years</t>
   </si>
   <si>
-    <t>Standard duration (TIPSY)</t>
-  </si>
-  <si>
     <t>ResponseDuration</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>rPrime_TreeMortality</t>
   </si>
   <si>
-    <t>RootUptakeFraction</t>
-  </si>
-  <si>
     <t>Fraction Urea application N content taken up by roots</t>
   </si>
   <si>
@@ -243,16 +237,62 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Average from Gessel et al. (1990)</t>
+  </si>
+  <si>
+    <t>EA_NUEu_NGTT_Interior</t>
+  </si>
+  <si>
+    <t>EA_NUEu_NGTT_Coast</t>
+  </si>
+  <si>
+    <t>From overlay of mean annual N deposition with BC Land Cover Scheme</t>
+  </si>
+  <si>
+    <t>EA_NUEa_NGTTD_Interior</t>
+  </si>
+  <si>
+    <t>EA_NUEa_NGTTD_Coast</t>
+  </si>
+  <si>
+    <t>Based on implementation level from RL analysis</t>
+  </si>
+  <si>
+    <t>EA Fraction volatilized</t>
+  </si>
+  <si>
+    <t>EA Forest deposition fraction</t>
+  </si>
+  <si>
+    <t>EA Particulate fraction</t>
+  </si>
+  <si>
+    <t>EA Leaf uptake fraction</t>
+  </si>
+  <si>
+    <t>EA Throughfall fraction</t>
+  </si>
+  <si>
+    <t>EA RootUptakeFraction</t>
+  </si>
+  <si>
+    <t>EA Fraction of footprint interior</t>
+  </si>
+  <si>
+    <t>EA Fraction of footprint coast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -271,12 +311,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -306,26 +352,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -339,34 +370,49 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,651 +752,886 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="17">
         <v>60.055999999999997</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="17">
         <v>17</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="17">
         <v>0.2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="17">
         <v>0.46</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="19">
         <f>44/28</f>
         <v>1.5714285714285714</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="17">
         <v>435</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="17">
         <v>0.8</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1.6895765507269917E-2</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1.3787000000000001E-2</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="25">
-        <v>1.6895765507269917E-2</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B11" s="17">
+        <v>1.5723000000000001E-2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="19">
-        <v>1.3787000000000001E-2</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="E11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="19">
-        <v>1.5723000000000001E-2</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="13" t="s">
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1.81</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="17">
+        <v>5.3E-3</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="17">
+        <v>5.2</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="19">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="17">
         <v>9</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>1.81</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="12">
-        <v>0.56666666666666665</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="18">
-        <v>5.3E-3</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="14">
-        <v>5.2</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="20">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="12" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="B21" s="25">
+        <v>1</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21" s="23">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="14">
-        <v>10</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="B23" s="25">
+        <v>1</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="25">
+        <v>1.4</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="17">
+        <v>1.37</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1.37</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="23">
-        <v>1.22</v>
-      </c>
-      <c r="C21" s="23">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="C22" s="24">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="C23" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="23">
-        <v>1</v>
-      </c>
-      <c r="C24" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="C25" s="23">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="C26" s="23">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="C27" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="C28" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="16">
-        <v>1.37</v>
-      </c>
-      <c r="C29" s="16">
-        <v>1.37</v>
-      </c>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="C30" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="17">
+        <v>1.21</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0</v>
+      </c>
+      <c r="D30" s="24">
+        <v>1.21</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="17">
         <v>1.21</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="17">
+        <v>0</v>
+      </c>
+      <c r="D31" s="24">
         <v>1.21</v>
       </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="20"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="16">
-        <v>1.21</v>
-      </c>
-      <c r="C32" s="16">
-        <v>1.21</v>
-      </c>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="17">
+        <v>1.32</v>
+      </c>
+      <c r="C33" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="24">
+        <v>1.32</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="16">
-        <v>0.66</v>
-      </c>
-      <c r="C33" s="16">
-        <v>0.66</v>
-      </c>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="16">
-        <v>1.32</v>
-      </c>
-      <c r="C34" s="16">
-        <v>1.32</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="17">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="24">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="16">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="C35" s="16">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C35" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="17">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="24">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="16">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C37" s="16">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="6"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="6"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="20">
+        <v>30</v>
+      </c>
+      <c r="C37" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="9">
+        <v>95</v>
+      </c>
+      <c r="C38" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="20">
+        <v>65</v>
+      </c>
+      <c r="C39" s="17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="19">
+        <v>180</v>
+      </c>
+      <c r="C40" s="17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C41" s="17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="C42" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C43" s="17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C45" s="17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="C46" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="3">
+        <f>1-B47</f>
+        <v>0.51</v>
+      </c>
+      <c r="C48" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
